--- a/BOM/예산관리.xlsx
+++ b/BOM/예산관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>미스터조각기</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,6 +111,46 @@
   </si>
   <si>
     <t>2 of LE Power Adapter, 2A, AC 100-240V to DC 12V Transformer, 24W Switching Power Supply, US Plug Power Converter for LED Strip Light and More, Pack of 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AliExpress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베어링가계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내써팝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amazon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브무역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2pcs chrome steel Cylindrical roller Dowel Locating Pin M3 M4 M5 3mm / 4mm / 5mm * 50 55 60 70 80 mm Smooth Rods Linear Shaft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열처리 연마봉 M8x350mm(6), M8x450mm(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이밍 풀리 GT2 기어 1... 외 3개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>304 Stainless Steel Screws Nuts and Washers 1200PCS, Sutemribor M2 M3 M4 Hex Socket Head Cap Bolts Screws Nuts Washers Assortment Kit with Three Hex Wrenches</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실리콘 구리스 뿌리는 그리스 스프레이 (3M 실리콘 루브리컨트)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +219,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +286,21 @@
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,12 +599,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="2">
-        <f>SUM(C4:C102)</f>
-        <v>190080</v>
+        <f>SUM(C3:C107)</f>
+        <v>479977</v>
       </c>
       <c r="D1" s="2">
         <f>600000-C1</f>
-        <v>409920</v>
+        <v>120023</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -558,130 +621,200 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14">
+        <v>43605</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5189</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43605</v>
+      </c>
+      <c r="C4" s="12">
+        <v>84600</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="14">
+        <v>43602</v>
+      </c>
+      <c r="C5" s="12">
+        <v>31950</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14">
+        <v>43467</v>
+      </c>
+      <c r="C6" s="12">
+        <v>99324</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14">
+        <v>43464</v>
+      </c>
+      <c r="C7" s="12">
+        <v>16900</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B8" s="3">
         <v>43451</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C8" s="10">
         <f>45.16*1150</f>
         <v>51933.999999999993</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>43451</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100200</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>43451</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14500</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43451</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43451</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6640</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43451</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6820</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3">
-        <v>43426</v>
+        <v>43451</v>
       </c>
       <c r="C9" s="2">
-        <v>14050</v>
+        <v>100200</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9">
-        <v>43419</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43451</v>
       </c>
       <c r="C10" s="2">
-        <v>20400</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
+        <v>14500</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6640</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6820</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43426</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14050</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43419</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20400</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B16" s="9">
         <v>43419</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C16" s="2">
         <v>20470</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
